--- a/out/artifacts/student_attendence_system_war_exploded/upload/excel.xlsx
+++ b/out/artifacts/student_attendence_system_war_exploded/upload/excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D-YY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF7BC2-CF26-46A1-8E92-324AF537952E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7091F12D-07CD-478C-9612-BDFFEF824890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,15 +67,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侯奕辰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行管161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大数据学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张跋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张适宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xg161</t>
+  </si>
+  <si>
+    <t>xg161</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -441,28 +476,236 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1600809260</v>
+        <v>1600809261</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>111234441</v>
+        <v>111234442</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1600809262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>111234443</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1600809263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>111234444</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1600809264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>111234445</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1600809265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>111234446</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1600809266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>111234447</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1600809267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>111234448</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1600809268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>111234449</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1600809269</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>111234450</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
